--- a/files/DicomStandardReference_2025c/C2025MandatoryModalityspecificModules_ReferenceSet.xlsx
+++ b/files/DicomStandardReference_2025c/C2025MandatoryModalityspecificModules_ReferenceSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dicom_heterogeneity\dicom_fidelity\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyulee Jeon\Desktop\dicomHeterogeneity\files\DicomStandardReference_2025c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9118DE-7FFB-4C24-9D83-B2950537BB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCC551-F4AD-45D8-81F5-4DBEE1F05A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$217</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="770">
   <si>
     <t>IOD</t>
   </si>
@@ -1693,18 +1693,6 @@
   </si>
   <si>
     <t>Table 10-5. General Anatomy Mandatory Macro Attributes</t>
-  </si>
-  <si>
-    <t>(0008,2220)</t>
-  </si>
-  <si>
-    <t>Anatomic Region Modifier Sequence</t>
-  </si>
-  <si>
-    <t>Anatomic​Region​Modifier​Sequence</t>
-  </si>
-  <si>
-    <t>Sequence of Items that modifies the anatomic region of interest of this Instance. One or more Items are permitted in this Sequence.</t>
   </si>
   <si>
     <t>Sequence of Items that identifies the primary anatomic structure(s) of interest in this Instance. One or more Items are permitted in this Sequence.</t>
@@ -2700,15 +2688,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3684,16 +3674,16 @@
         <v>509</v>
       </c>
       <c r="C26" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D26" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E26" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F26" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -3705,13 +3695,13 @@
         <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K26" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L26" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M26" t="s">
         <v>24</v>
@@ -3725,16 +3715,16 @@
         <v>509</v>
       </c>
       <c r="C27" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D27" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E27" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F27" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G27" t="s">
         <v>63</v>
@@ -3746,13 +3736,13 @@
         <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="K27" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>
@@ -3766,7 +3756,7 @@
         <v>509</v>
       </c>
       <c r="C28" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D28" t="s">
         <v>209</v>
@@ -3787,10 +3777,10 @@
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K28" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M28" t="s">
         <v>30</v>
@@ -3804,16 +3794,16 @@
         <v>509</v>
       </c>
       <c r="C29" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D29" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E29" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F29" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -3825,10 +3815,10 @@
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K29" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M29" t="s">
         <v>30</v>
@@ -3842,7 +3832,7 @@
         <v>509</v>
       </c>
       <c r="C30" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D30" t="s">
         <v>219</v>
@@ -3863,10 +3853,10 @@
         <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K30" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M30" t="s">
         <v>30</v>
@@ -3880,16 +3870,16 @@
         <v>509</v>
       </c>
       <c r="C31" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D31" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E31" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F31" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -3901,10 +3891,10 @@
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K31" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M31" t="s">
         <v>30</v>
@@ -3918,16 +3908,16 @@
         <v>509</v>
       </c>
       <c r="C32" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D32" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E32" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F32" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -3939,10 +3929,10 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K32" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M32" t="s">
         <v>30</v>
@@ -8702,13 +8692,13 @@
         <v>517</v>
       </c>
       <c r="D156" t="s">
-        <v>556</v>
+        <v>111</v>
       </c>
       <c r="E156" t="s">
-        <v>557</v>
+        <v>112</v>
       </c>
       <c r="F156" t="s">
-        <v>558</v>
+        <v>113</v>
       </c>
       <c r="G156" t="s">
         <v>27</v>
@@ -8720,10 +8710,10 @@
         <v>19</v>
       </c>
       <c r="J156" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K156" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M156" t="s">
         <v>30</v>
@@ -8740,16 +8730,16 @@
         <v>517</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="E157" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="G157" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
         <v>108</v>
@@ -8758,13 +8748,13 @@
         <v>19</v>
       </c>
       <c r="J157" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K157" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="M157" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -8778,16 +8768,16 @@
         <v>517</v>
       </c>
       <c r="D158" t="s">
-        <v>287</v>
+        <v>559</v>
       </c>
       <c r="E158" t="s">
-        <v>288</v>
+        <v>560</v>
       </c>
       <c r="F158" t="s">
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H158" t="s">
         <v>108</v>
@@ -8825,7 +8815,7 @@
         <v>565</v>
       </c>
       <c r="G159" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H159" t="s">
         <v>108</v>
@@ -8840,7 +8830,7 @@
         <v>519</v>
       </c>
       <c r="M159" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,25 +8838,25 @@
         <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="C160" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="D160" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E160" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F160" t="s">
         <v>569</v>
       </c>
       <c r="G160" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I160" t="s">
         <v>19</v>
@@ -8875,10 +8865,13 @@
         <v>570</v>
       </c>
       <c r="K160" t="s">
-        <v>519</v>
+        <v>571</v>
+      </c>
+      <c r="L160" t="s">
+        <v>572</v>
       </c>
       <c r="M160" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -8889,113 +8882,110 @@
         <v>509</v>
       </c>
       <c r="C161" t="s">
+        <v>567</v>
+      </c>
+      <c r="D161" t="s">
+        <v>573</v>
+      </c>
+      <c r="E161" t="s">
+        <v>574</v>
+      </c>
+      <c r="F161" t="s">
+        <v>575</v>
+      </c>
+      <c r="G161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" t="s">
+        <v>108</v>
+      </c>
+      <c r="I161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" t="s">
+        <v>576</v>
+      </c>
+      <c r="K161" t="s">
         <v>571</v>
       </c>
-      <c r="D161" t="s">
-        <v>572</v>
-      </c>
-      <c r="E161" t="s">
-        <v>573</v>
-      </c>
-      <c r="F161" t="s">
-        <v>573</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
-      <c r="H161" t="s">
-        <v>20</v>
-      </c>
-      <c r="I161" t="s">
-        <v>19</v>
-      </c>
-      <c r="J161" t="s">
-        <v>574</v>
-      </c>
-      <c r="K161" t="s">
-        <v>575</v>
-      </c>
-      <c r="L161" t="s">
-        <v>576</v>
-      </c>
       <c r="M161" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>337</v>
+        <v>577</v>
       </c>
       <c r="B162" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D162" t="s">
-        <v>577</v>
+        <v>131</v>
       </c>
       <c r="E162" t="s">
-        <v>578</v>
+        <v>132</v>
       </c>
       <c r="F162" t="s">
+        <v>133</v>
+      </c>
+      <c r="G162" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>134</v>
+      </c>
+      <c r="J162" t="s">
         <v>579</v>
       </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s">
-        <v>108</v>
-      </c>
-      <c r="I162" t="s">
-        <v>19</v>
-      </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>580</v>
       </c>
-      <c r="K162" t="s">
-        <v>575</v>
+      <c r="L162" t="s">
+        <v>581</v>
       </c>
       <c r="M162" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B163" t="s">
         <v>14</v>
       </c>
       <c r="C163" t="s">
+        <v>578</v>
+      </c>
+      <c r="D163" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" t="s">
+        <v>144</v>
+      </c>
+      <c r="F163" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" t="s">
+        <v>90</v>
+      </c>
+      <c r="I163" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" t="s">
         <v>582</v>
       </c>
-      <c r="D163" t="s">
-        <v>131</v>
-      </c>
-      <c r="E163" t="s">
-        <v>132</v>
-      </c>
-      <c r="F163" t="s">
-        <v>133</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
-      <c r="H163" t="s">
-        <v>20</v>
-      </c>
-      <c r="I163" t="s">
-        <v>134</v>
-      </c>
-      <c r="J163" t="s">
-        <v>583</v>
-      </c>
       <c r="K163" t="s">
-        <v>584</v>
-      </c>
-      <c r="L163" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M163" t="s">
         <v>24</v>
@@ -9003,37 +8993,40 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B164" t="s">
         <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D164" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
         <v>19</v>
       </c>
       <c r="J164" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K164" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L164" t="s">
+        <v>23</v>
       </c>
       <c r="M164" t="s">
         <v>24</v>
@@ -9041,40 +9034,37 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B165" t="s">
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="G165" t="s">
         <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I165" t="s">
         <v>19</v>
       </c>
       <c r="J165" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K165" t="s">
-        <v>584</v>
-      </c>
-      <c r="L165" t="s">
-        <v>23</v>
+        <v>580</v>
       </c>
       <c r="M165" t="s">
         <v>24</v>
@@ -9082,22 +9072,22 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B166" t="s">
         <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D166" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E166" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F166" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -9109,10 +9099,10 @@
         <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K166" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M166" t="s">
         <v>24</v>
@@ -9120,22 +9110,22 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D167" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E167" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F167" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G167" t="s">
         <v>19</v>
@@ -9147,10 +9137,10 @@
         <v>19</v>
       </c>
       <c r="J167" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K167" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M167" t="s">
         <v>24</v>
@@ -9158,37 +9148,40 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B168" t="s">
         <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D168" t="s">
-        <v>156</v>
+        <v>587</v>
       </c>
       <c r="E168" t="s">
-        <v>157</v>
+        <v>588</v>
       </c>
       <c r="F168" t="s">
-        <v>158</v>
+        <v>589</v>
       </c>
       <c r="G168" t="s">
         <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="J168" t="s">
         <v>590</v>
       </c>
       <c r="K168" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L168" t="s">
+        <v>591</v>
       </c>
       <c r="M168" t="s">
         <v>24</v>
@@ -9196,22 +9189,22 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D169" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E169" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F169" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G169" t="s">
         <v>19</v>
@@ -9223,13 +9216,13 @@
         <v>176</v>
       </c>
       <c r="J169" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K169" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L169" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M169" t="s">
         <v>24</v>
@@ -9237,25 +9230,25 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B170" t="s">
         <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D170" t="s">
-        <v>596</v>
+        <v>172</v>
       </c>
       <c r="E170" t="s">
-        <v>597</v>
+        <v>173</v>
       </c>
       <c r="F170" t="s">
-        <v>598</v>
+        <v>174</v>
       </c>
       <c r="G170" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H170" t="s">
         <v>20</v>
@@ -9264,13 +9257,13 @@
         <v>176</v>
       </c>
       <c r="J170" t="s">
-        <v>599</v>
+        <v>177</v>
       </c>
       <c r="K170" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L170" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M170" t="s">
         <v>24</v>
@@ -9278,22 +9271,22 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D171" t="s">
-        <v>172</v>
+        <v>598</v>
       </c>
       <c r="E171" t="s">
-        <v>173</v>
+        <v>599</v>
       </c>
       <c r="F171" t="s">
-        <v>174</v>
+        <v>600</v>
       </c>
       <c r="G171" t="s">
         <v>63</v>
@@ -9302,16 +9295,16 @@
         <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J171" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="K171" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L171" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M171" t="s">
         <v>24</v>
@@ -9319,40 +9312,37 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
       </c>
       <c r="C172" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D172" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E172" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G172" t="s">
         <v>63</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I172" t="s">
         <v>19</v>
       </c>
       <c r="J172" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K172" t="s">
-        <v>584</v>
-      </c>
-      <c r="L172" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="M172" t="s">
         <v>24</v>
@@ -9360,13 +9350,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D173" t="s">
         <v>607</v>
@@ -9381,7 +9371,7 @@
         <v>63</v>
       </c>
       <c r="H173" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
@@ -9390,7 +9380,7 @@
         <v>610</v>
       </c>
       <c r="K173" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M173" t="s">
         <v>24</v>
@@ -9398,13 +9388,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D174" t="s">
         <v>611</v>
@@ -9416,10 +9406,10 @@
         <v>613</v>
       </c>
       <c r="G174" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H174" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -9428,21 +9418,21 @@
         <v>614</v>
       </c>
       <c r="K174" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M174" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B175" t="s">
         <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D175" t="s">
         <v>615</v>
@@ -9457,7 +9447,7 @@
         <v>27</v>
       </c>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="I175" t="s">
         <v>19</v>
@@ -9466,7 +9456,10 @@
         <v>618</v>
       </c>
       <c r="K175" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L175" t="s">
+        <v>619</v>
       </c>
       <c r="M175" t="s">
         <v>30</v>
@@ -9474,40 +9467,37 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
       </c>
       <c r="C176" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D176" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E176" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F176" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G176" t="s">
         <v>27</v>
       </c>
       <c r="H176" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
       </c>
       <c r="J176" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K176" t="s">
-        <v>584</v>
-      </c>
-      <c r="L176" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="M176" t="s">
         <v>30</v>
@@ -9515,13 +9505,13 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D177" t="s">
         <v>624</v>
@@ -9545,7 +9535,7 @@
         <v>627</v>
       </c>
       <c r="K177" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M177" t="s">
         <v>30</v>
@@ -9553,13 +9543,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D178" t="s">
         <v>628</v>
@@ -9574,7 +9564,7 @@
         <v>27</v>
       </c>
       <c r="H178" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I178" t="s">
         <v>19</v>
@@ -9583,7 +9573,7 @@
         <v>631</v>
       </c>
       <c r="K178" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M178" t="s">
         <v>30</v>
@@ -9591,13 +9581,13 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
       </c>
       <c r="C179" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D179" t="s">
         <v>632</v>
@@ -9612,16 +9602,16 @@
         <v>27</v>
       </c>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="J179" t="s">
         <v>635</v>
       </c>
       <c r="K179" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M179" t="s">
         <v>30</v>
@@ -9629,13 +9619,13 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B180" t="s">
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D180" t="s">
         <v>636</v>
@@ -9650,16 +9640,16 @@
         <v>27</v>
       </c>
       <c r="H180" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I180" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J180" t="s">
         <v>639</v>
       </c>
       <c r="K180" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M180" t="s">
         <v>30</v>
@@ -9667,13 +9657,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D181" t="s">
         <v>640</v>
@@ -9688,7 +9678,7 @@
         <v>27</v>
       </c>
       <c r="H181" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
@@ -9697,7 +9687,7 @@
         <v>643</v>
       </c>
       <c r="K181" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M181" t="s">
         <v>30</v>
@@ -9705,13 +9695,13 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B182" t="s">
         <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D182" t="s">
         <v>644</v>
@@ -9726,7 +9716,7 @@
         <v>27</v>
       </c>
       <c r="H182" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I182" t="s">
         <v>19</v>
@@ -9735,7 +9725,7 @@
         <v>647</v>
       </c>
       <c r="K182" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M182" t="s">
         <v>30</v>
@@ -9743,13 +9733,13 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D183" t="s">
         <v>648</v>
@@ -9773,7 +9763,7 @@
         <v>651</v>
       </c>
       <c r="K183" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M183" t="s">
         <v>30</v>
@@ -9781,13 +9771,13 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B184" t="s">
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D184" t="s">
         <v>652</v>
@@ -9811,7 +9801,7 @@
         <v>655</v>
       </c>
       <c r="K184" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M184" t="s">
         <v>30</v>
@@ -9819,13 +9809,13 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D185" t="s">
         <v>656</v>
@@ -9840,7 +9830,7 @@
         <v>27</v>
       </c>
       <c r="H185" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I185" t="s">
         <v>19</v>
@@ -9849,7 +9839,7 @@
         <v>659</v>
       </c>
       <c r="K185" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M185" t="s">
         <v>30</v>
@@ -9857,13 +9847,13 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B186" t="s">
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D186" t="s">
         <v>660</v>
@@ -9878,7 +9868,7 @@
         <v>27</v>
       </c>
       <c r="H186" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
         <v>19</v>
@@ -9887,7 +9877,10 @@
         <v>663</v>
       </c>
       <c r="K186" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L186" t="s">
+        <v>619</v>
       </c>
       <c r="M186" t="s">
         <v>30</v>
@@ -9895,13 +9888,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B187" t="s">
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D187" t="s">
         <v>664</v>
@@ -9916,7 +9909,7 @@
         <v>27</v>
       </c>
       <c r="H187" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
@@ -9925,10 +9918,7 @@
         <v>667</v>
       </c>
       <c r="K187" t="s">
-        <v>584</v>
-      </c>
-      <c r="L187" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="M187" t="s">
         <v>30</v>
@@ -9936,13 +9926,13 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B188" t="s">
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D188" t="s">
         <v>668</v>
@@ -9966,7 +9956,7 @@
         <v>671</v>
       </c>
       <c r="K188" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M188" t="s">
         <v>30</v>
@@ -9974,13 +9964,13 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D189" t="s">
         <v>672</v>
@@ -10004,7 +9994,7 @@
         <v>675</v>
       </c>
       <c r="K189" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M189" t="s">
         <v>30</v>
@@ -10012,13 +10002,13 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D190" t="s">
         <v>676</v>
@@ -10042,7 +10032,7 @@
         <v>679</v>
       </c>
       <c r="K190" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M190" t="s">
         <v>30</v>
@@ -10050,13 +10040,13 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D191" t="s">
         <v>680</v>
@@ -10071,7 +10061,7 @@
         <v>27</v>
       </c>
       <c r="H191" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
@@ -10080,7 +10070,7 @@
         <v>683</v>
       </c>
       <c r="K191" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M191" t="s">
         <v>30</v>
@@ -10088,13 +10078,13 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B192" t="s">
         <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D192" t="s">
         <v>684</v>
@@ -10109,7 +10099,7 @@
         <v>27</v>
       </c>
       <c r="H192" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I192" t="s">
         <v>19</v>
@@ -10118,7 +10108,7 @@
         <v>687</v>
       </c>
       <c r="K192" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M192" t="s">
         <v>30</v>
@@ -10126,13 +10116,13 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B193" t="s">
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D193" t="s">
         <v>688</v>
@@ -10156,7 +10146,7 @@
         <v>691</v>
       </c>
       <c r="K193" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M193" t="s">
         <v>30</v>
@@ -10164,13 +10154,13 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B194" t="s">
         <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D194" t="s">
         <v>692</v>
@@ -10194,7 +10184,7 @@
         <v>695</v>
       </c>
       <c r="K194" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M194" t="s">
         <v>30</v>
@@ -10202,13 +10192,13 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B195" t="s">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D195" t="s">
         <v>696</v>
@@ -10232,7 +10222,7 @@
         <v>699</v>
       </c>
       <c r="K195" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M195" t="s">
         <v>30</v>
@@ -10240,37 +10230,37 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B196" t="s">
         <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D196" t="s">
+        <v>187</v>
+      </c>
+      <c r="E196" t="s">
+        <v>188</v>
+      </c>
+      <c r="F196" t="s">
+        <v>189</v>
+      </c>
+      <c r="G196" t="s">
+        <v>27</v>
+      </c>
+      <c r="H196" t="s">
+        <v>28</v>
+      </c>
+      <c r="I196" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" t="s">
         <v>700</v>
       </c>
-      <c r="E196" t="s">
-        <v>701</v>
-      </c>
-      <c r="F196" t="s">
-        <v>702</v>
-      </c>
-      <c r="G196" t="s">
-        <v>27</v>
-      </c>
-      <c r="H196" t="s">
-        <v>47</v>
-      </c>
-      <c r="I196" t="s">
-        <v>19</v>
-      </c>
-      <c r="J196" t="s">
-        <v>703</v>
-      </c>
       <c r="K196" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M196" t="s">
         <v>30</v>
@@ -10278,28 +10268,28 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B197" t="s">
         <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D197" t="s">
-        <v>187</v>
+        <v>701</v>
       </c>
       <c r="E197" t="s">
-        <v>188</v>
+        <v>702</v>
       </c>
       <c r="F197" t="s">
-        <v>189</v>
+        <v>703</v>
       </c>
       <c r="G197" t="s">
         <v>27</v>
       </c>
       <c r="H197" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I197" t="s">
         <v>19</v>
@@ -10308,7 +10298,7 @@
         <v>704</v>
       </c>
       <c r="K197" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M197" t="s">
         <v>30</v>
@@ -10316,13 +10306,13 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B198" t="s">
         <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D198" t="s">
         <v>705</v>
@@ -10346,7 +10336,7 @@
         <v>708</v>
       </c>
       <c r="K198" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M198" t="s">
         <v>30</v>
@@ -10354,13 +10344,13 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B199" t="s">
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D199" t="s">
         <v>709</v>
@@ -10375,16 +10365,16 @@
         <v>27</v>
       </c>
       <c r="H199" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="I199" t="s">
-        <v>19</v>
+        <v>712</v>
       </c>
       <c r="J199" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K199" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M199" t="s">
         <v>30</v>
@@ -10392,37 +10382,40 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B200" t="s">
         <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D200" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E200" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F200" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G200" t="s">
         <v>27</v>
       </c>
       <c r="H200" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I200" t="s">
-        <v>716</v>
+        <v>19</v>
       </c>
       <c r="J200" t="s">
         <v>717</v>
       </c>
       <c r="K200" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L200" t="s">
+        <v>718</v>
       </c>
       <c r="M200" t="s">
         <v>30</v>
@@ -10430,40 +10423,37 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D201" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E201" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F201" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G201" t="s">
         <v>27</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I201" t="s">
         <v>19</v>
       </c>
       <c r="J201" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K201" t="s">
-        <v>584</v>
-      </c>
-      <c r="L201" t="s">
-        <v>722</v>
+        <v>580</v>
       </c>
       <c r="M201" t="s">
         <v>30</v>
@@ -10471,13 +10461,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B202" t="s">
         <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D202" t="s">
         <v>723</v>
@@ -10486,7 +10476,7 @@
         <v>724</v>
       </c>
       <c r="F202" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G202" t="s">
         <v>27</v>
@@ -10498,10 +10488,10 @@
         <v>19</v>
       </c>
       <c r="J202" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K202" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M202" t="s">
         <v>30</v>
@@ -10509,19 +10499,19 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B203" t="s">
         <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D203" t="s">
+        <v>726</v>
+      </c>
+      <c r="E203" t="s">
         <v>727</v>
-      </c>
-      <c r="E203" t="s">
-        <v>728</v>
       </c>
       <c r="F203" t="s">
         <v>728</v>
@@ -10530,7 +10520,7 @@
         <v>27</v>
       </c>
       <c r="H203" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I203" t="s">
         <v>19</v>
@@ -10539,7 +10529,10 @@
         <v>729</v>
       </c>
       <c r="K203" t="s">
-        <v>584</v>
+        <v>580</v>
+      </c>
+      <c r="L203" t="s">
+        <v>619</v>
       </c>
       <c r="M203" t="s">
         <v>30</v>
@@ -10547,13 +10540,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B204" t="s">
         <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D204" t="s">
         <v>730</v>
@@ -10568,7 +10561,7 @@
         <v>27</v>
       </c>
       <c r="H204" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I204" t="s">
         <v>19</v>
@@ -10577,10 +10570,7 @@
         <v>733</v>
       </c>
       <c r="K204" t="s">
-        <v>584</v>
-      </c>
-      <c r="L204" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="M204" t="s">
         <v>30</v>
@@ -10588,13 +10578,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B205" t="s">
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D205" t="s">
         <v>734</v>
@@ -10609,7 +10599,7 @@
         <v>27</v>
       </c>
       <c r="H205" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I205" t="s">
         <v>19</v>
@@ -10618,7 +10608,7 @@
         <v>737</v>
       </c>
       <c r="K205" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M205" t="s">
         <v>30</v>
@@ -10626,13 +10616,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B206" t="s">
         <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D206" t="s">
         <v>738</v>
@@ -10656,7 +10646,7 @@
         <v>741</v>
       </c>
       <c r="K206" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M206" t="s">
         <v>30</v>
@@ -10664,13 +10654,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B207" t="s">
         <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D207" t="s">
         <v>742</v>
@@ -10685,7 +10675,7 @@
         <v>27</v>
       </c>
       <c r="H207" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I207" t="s">
         <v>19</v>
@@ -10694,7 +10684,7 @@
         <v>745</v>
       </c>
       <c r="K207" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M207" t="s">
         <v>30</v>
@@ -10702,13 +10692,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B208" t="s">
         <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D208" t="s">
         <v>746</v>
@@ -10717,22 +10707,22 @@
         <v>747</v>
       </c>
       <c r="F208" t="s">
+        <v>747</v>
+      </c>
+      <c r="G208" t="s">
+        <v>27</v>
+      </c>
+      <c r="H208" t="s">
+        <v>275</v>
+      </c>
+      <c r="I208" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" t="s">
         <v>748</v>
       </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
-      <c r="H208" t="s">
-        <v>28</v>
-      </c>
-      <c r="I208" t="s">
-        <v>19</v>
-      </c>
-      <c r="J208" t="s">
-        <v>749</v>
-      </c>
       <c r="K208" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M208" t="s">
         <v>30</v>
@@ -10740,37 +10730,37 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D209" t="s">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="E209" t="s">
-        <v>751</v>
+        <v>106</v>
       </c>
       <c r="F209" t="s">
-        <v>751</v>
+        <v>107</v>
       </c>
       <c r="G209" t="s">
         <v>27</v>
       </c>
       <c r="H209" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="I209" t="s">
         <v>19</v>
       </c>
       <c r="J209" t="s">
-        <v>752</v>
+        <v>285</v>
       </c>
       <c r="K209" t="s">
-        <v>584</v>
+        <v>286</v>
       </c>
       <c r="M209" t="s">
         <v>30</v>
@@ -10778,22 +10768,22 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B210" t="s">
         <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D210" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E210" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F210" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G210" t="s">
         <v>27</v>
@@ -10805,10 +10795,10 @@
         <v>19</v>
       </c>
       <c r="J210" t="s">
-        <v>285</v>
+        <v>556</v>
       </c>
       <c r="K210" t="s">
-        <v>286</v>
+        <v>557</v>
       </c>
       <c r="M210" t="s">
         <v>30</v>
@@ -10816,22 +10806,22 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B211" t="s">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D211" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="E211" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="F211" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="G211" t="s">
         <v>27</v>
@@ -10843,10 +10833,10 @@
         <v>19</v>
       </c>
       <c r="J211" t="s">
-        <v>560</v>
+        <v>290</v>
       </c>
       <c r="K211" t="s">
-        <v>561</v>
+        <v>749</v>
       </c>
       <c r="M211" t="s">
         <v>30</v>
@@ -10854,37 +10844,40 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B212" t="s">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D212" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E212" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F212" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G212" t="s">
         <v>27</v>
       </c>
       <c r="H212" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I212" t="s">
         <v>19</v>
       </c>
       <c r="J212" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K212" t="s">
-        <v>753</v>
+        <v>749</v>
+      </c>
+      <c r="L212" t="s">
+        <v>296</v>
       </c>
       <c r="M212" t="s">
         <v>30</v>
@@ -10892,40 +10885,37 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B213" t="s">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D213" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E213" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F213" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G213" t="s">
         <v>27</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I213" t="s">
         <v>19</v>
       </c>
       <c r="J213" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K213" t="s">
-        <v>753</v>
-      </c>
-      <c r="L213" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M213" t="s">
         <v>30</v>
@@ -10933,34 +10923,34 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B214" t="s">
         <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D214" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E214" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F214" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G214" t="s">
         <v>27</v>
       </c>
       <c r="H214" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J214" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K214" t="s">
         <v>301</v>
@@ -10971,34 +10961,34 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B215" t="s">
         <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D215" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E215" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F215" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G215" t="s">
         <v>27</v>
       </c>
       <c r="H215" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="I215" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J215" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K215" t="s">
         <v>301</v>
@@ -11009,22 +10999,22 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B216" t="s">
         <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D216" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E216" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F216" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G216" t="s">
         <v>27</v>
@@ -11036,7 +11026,7 @@
         <v>19</v>
       </c>
       <c r="J216" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K216" t="s">
         <v>301</v>
@@ -11047,22 +11037,22 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D217" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E217" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F217" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G217" t="s">
         <v>27</v>
@@ -11074,7 +11064,7 @@
         <v>19</v>
       </c>
       <c r="J217" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K217" t="s">
         <v>301</v>
@@ -11083,48 +11073,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>581</v>
-      </c>
-      <c r="B218" t="s">
-        <v>14</v>
-      </c>
-      <c r="C218" t="s">
-        <v>582</v>
-      </c>
-      <c r="D218" t="s">
-        <v>314</v>
-      </c>
-      <c r="E218" t="s">
-        <v>315</v>
-      </c>
-      <c r="F218" t="s">
-        <v>316</v>
-      </c>
-      <c r="G218" t="s">
-        <v>27</v>
-      </c>
-      <c r="H218" t="s">
-        <v>108</v>
-      </c>
-      <c r="I218" t="s">
-        <v>19</v>
-      </c>
-      <c r="J218" t="s">
-        <v>317</v>
-      </c>
-      <c r="K218" t="s">
-        <v>301</v>
-      </c>
-      <c r="M218" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M218" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M218">
-      <sortCondition ref="A1:A218"/>
+  <autoFilter ref="A1:M217" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M217">
+      <sortCondition ref="A1:A217"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
